--- a/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_4_4_2.xlsx
+++ b/UnitTestHVACChecker/测试数据/测试数据_GB51251_2017_4_4_2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="18255" windowHeight="7080" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="18260" windowHeight="7080" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="风机(住宅&gt;100通过)" sheetId="43" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="23">
   <si>
     <t>楼层编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>20,21,22,23,24,25,26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为室外风口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,20 +484,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="3" width="36.125" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="36.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -501,8 +513,11 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -512,8 +527,11 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -522,6 +540,9 @@
       </c>
       <c r="D3" t="b">
         <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -533,18 +554,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -557,8 +579,14 @@
       <c r="D1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -571,8 +599,14 @@
       <c r="D2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -585,8 +619,14 @@
       <c r="D3" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -599,8 +639,14 @@
       <c r="D4" s="1">
         <v>8000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -613,8 +659,14 @@
       <c r="D5" s="1">
         <v>12000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -627,8 +679,14 @@
       <c r="D6" s="1">
         <v>16000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -641,8 +699,14 @@
       <c r="D7" s="1">
         <v>20000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -655,8 +719,14 @@
       <c r="D8" s="1">
         <v>24000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -667,8 +737,14 @@
       <c r="D9" s="2">
         <v>-20000</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -679,8 +755,14 @@
       <c r="D10" s="2">
         <v>-10000</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -691,8 +773,14 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -703,8 +791,14 @@
       <c r="D12" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -715,8 +809,14 @@
       <c r="D13" s="2">
         <v>20000</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -727,8 +827,14 @@
       <c r="D14" s="2">
         <v>30000</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -739,8 +845,14 @@
       <c r="D15" s="2">
         <v>40000</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -751,8 +863,14 @@
       <c r="D16" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -763,8 +881,14 @@
       <c r="D17" s="2">
         <v>60000</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -775,8 +899,14 @@
       <c r="D18" s="2">
         <v>70000</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -787,8 +917,14 @@
       <c r="D19" s="2">
         <v>80000</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -799,8 +935,14 @@
       <c r="D20" s="2">
         <v>90000</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -813,8 +955,14 @@
       <c r="D21" s="1">
         <v>-20000</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -827,8 +975,14 @@
       <c r="D22" s="1">
         <v>-10000</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -841,8 +995,14 @@
       <c r="D23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -855,8 +1015,14 @@
       <c r="D24" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -869,8 +1035,14 @@
       <c r="D25" s="1">
         <v>20000</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -883,8 +1055,14 @@
       <c r="D26" s="1">
         <v>30000</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -896,6 +1074,12 @@
       </c>
       <c r="D27" s="1">
         <v>40000</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -907,20 +1091,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="3" width="37.875" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="37.90625" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -936,8 +1120,11 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -947,8 +1134,11 @@
       <c r="D2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -957,6 +1147,9 @@
       </c>
       <c r="D3" t="b">
         <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -968,20 +1161,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="3" width="37.875" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="37.90625" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -997,8 +1190,11 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1008,8 +1204,11 @@
       <c r="D2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1018,6 +1217,9 @@
       </c>
       <c r="D3" t="b">
         <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -1029,20 +1231,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="3" width="33.25" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="33.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1058,8 +1260,11 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1069,8 +1274,11 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1080,8 +1288,11 @@
       <c r="D3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1098,20 +1309,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="3" width="35.5" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="35.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1127,8 +1338,11 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1138,8 +1352,11 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1149,8 +1366,11 @@
       <c r="D3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1160,13 +1380,19 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -1178,20 +1404,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1207,8 +1433,11 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1218,8 +1447,11 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1229,8 +1461,11 @@
       <c r="D3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1240,13 +1475,19 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
